--- a/app/static/files/data.xlsx
+++ b/app/static/files/data.xlsx
@@ -46426,8 +46426,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FC1483584FA1346AC511C81214FF1F3" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b3aed7858268981cc06302c5d0730d0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="afcb7607-2e65-4e7c-b7e6-1008afece165" xmlns:ns3="3758dce1-194a-4df8-9bb5-9d5f2f65257a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e758172845eb8af90915604bb17c3cf3" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FC1483584FA1346AC511C81214FF1F3" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1be9fc8098d9bc8c60e6e190eff0c858">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="afcb7607-2e65-4e7c-b7e6-1008afece165" xmlns:ns3="3758dce1-194a-4df8-9bb5-9d5f2f65257a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e73c63851cf84d0df26de0a1bdbb364c" ns2:_="" ns3:_="">
     <xsd:import namespace="afcb7607-2e65-4e7c-b7e6-1008afece165"/>
     <xsd:import namespace="3758dce1-194a-4df8-9bb5-9d5f2f65257a"/>
     <xsd:element name="properties">
@@ -46452,6 +46452,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -46531,6 +46532,11 @@
     <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -46695,22 +46701,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97081338-688D-486C-808A-F96D7ED18524}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="afcb7607-2e65-4e7c-b7e6-1008afece165"/>
-    <ds:schemaRef ds:uri="3758dce1-194a-4df8-9bb5-9d5f2f65257a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB848813-A993-446E-8CCC-6214085B527A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
